--- a/R/analysis/data/Pt_19_Experimental.xlsx
+++ b/R/analysis/data/Pt_19_Experimental.xlsx
@@ -521,10 +521,10 @@
         <v>2.25</v>
       </c>
       <c r="M2" t="n">
-        <v>2.38</v>
+        <v>0.82</v>
       </c>
       <c r="N2" t="n">
-        <v>-0.5</v>
+        <v>2</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -573,10 +573,10 @@
         <v>1.7</v>
       </c>
       <c r="K3" t="n">
-        <v>2.56</v>
+        <v>1.51</v>
       </c>
       <c r="L3" t="n">
-        <v>-1.71</v>
+        <v>2.57</v>
       </c>
       <c r="M3"/>
       <c r="N3" t="n">
@@ -631,16 +631,16 @@
         <v>2.22</v>
       </c>
       <c r="K4" t="n">
-        <v>2.8</v>
+        <v>0.23</v>
       </c>
       <c r="L4" t="n">
-        <v>0.27</v>
+        <v>2.41</v>
       </c>
       <c r="M4" t="n">
-        <v>1.77</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>0.75</v>
+        <v>2</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -696,7 +696,7 @@
         <v>1.31</v>
       </c>
       <c r="N5" t="n">
-        <v>-3.5</v>
+        <v>3.5</v>
       </c>
       <c r="O5" t="n">
         <v>0</v>
@@ -748,7 +748,7 @@
         <v>1.57</v>
       </c>
       <c r="L6" t="n">
-        <v>-4.14</v>
+        <v>4.14</v>
       </c>
       <c r="M6"/>
       <c r="N6" t="n">
@@ -802,13 +802,13 @@
       </c>
       <c r="K7"/>
       <c r="L7" t="n">
-        <v>-4.14</v>
+        <v>4.14</v>
       </c>
       <c r="M7" t="n">
-        <v>3.89</v>
+        <v>1.06</v>
       </c>
       <c r="N7" t="n">
-        <v>-0.75</v>
+        <v>2.75</v>
       </c>
       <c r="O7" t="n">
         <v>0</v>
@@ -868,7 +868,7 @@
         <v>0.71</v>
       </c>
       <c r="N8" t="n">
-        <v>-3</v>
+        <v>3</v>
       </c>
       <c r="O8" t="n">
         <v>0</v>
@@ -920,7 +920,7 @@
         <v>1.25</v>
       </c>
       <c r="L9" t="n">
-        <v>-4.29</v>
+        <v>4.29</v>
       </c>
       <c r="M9"/>
       <c r="N9" t="n">
@@ -975,16 +975,16 @@
         <v>1.8</v>
       </c>
       <c r="K10" t="n">
-        <v>5.15</v>
+        <v>0.91</v>
       </c>
       <c r="L10" t="n">
-        <v>-0.64</v>
+        <v>3.64</v>
       </c>
       <c r="M10" t="n">
-        <v>4.95</v>
+        <v>0.71</v>
       </c>
       <c r="N10" t="n">
-        <v>0.5</v>
+        <v>3.5</v>
       </c>
       <c r="O10" t="n">
         <v>0.08</v>
@@ -1041,10 +1041,10 @@
         <v>3</v>
       </c>
       <c r="M11" t="n">
-        <v>2.04</v>
+        <v>0.84</v>
       </c>
       <c r="N11" t="n">
-        <v>-1.83</v>
+        <v>2.5</v>
       </c>
       <c r="O11" t="n">
         <v>0.35</v>
@@ -1093,10 +1093,10 @@
         <v>1.57</v>
       </c>
       <c r="K12" t="n">
-        <v>2.41</v>
+        <v>1.11</v>
       </c>
       <c r="L12" t="n">
-        <v>-1.86</v>
+        <v>2.71</v>
       </c>
       <c r="M12"/>
       <c r="N12" t="n">
@@ -1151,16 +1151,16 @@
         <v>2.07</v>
       </c>
       <c r="K13" t="n">
-        <v>3.44</v>
+        <v>0.21</v>
       </c>
       <c r="L13" t="n">
-        <v>0.57</v>
+        <v>2.86</v>
       </c>
       <c r="M13" t="n">
-        <v>3.42</v>
+        <v>0.35</v>
       </c>
       <c r="N13" t="n">
-        <v>0.58</v>
+        <v>2.75</v>
       </c>
       <c r="O13" t="n">
         <v>0.08</v>
@@ -1220,7 +1220,7 @@
         <v>1.67</v>
       </c>
       <c r="N14" t="n">
-        <v>-3</v>
+        <v>3</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
@@ -1274,7 +1274,7 @@
         <v>1.22</v>
       </c>
       <c r="L15" t="n">
-        <v>-3.5</v>
+        <v>3.5</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -1331,16 +1331,16 @@
         <v>1.52</v>
       </c>
       <c r="K16" t="n">
-        <v>5.3</v>
+        <v>0.35</v>
       </c>
       <c r="L16" t="n">
-        <v>0.25</v>
+        <v>3.75</v>
       </c>
       <c r="M16" t="n">
-        <v>4.24</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O16" t="n">
         <v>0.08</v>
@@ -1400,7 +1400,7 @@
         <v>0.58</v>
       </c>
       <c r="N17" t="n">
-        <v>-2.67</v>
+        <v>2.67</v>
       </c>
       <c r="O17" t="n">
         <v>0</v>
@@ -1454,7 +1454,7 @@
         <v>0.52</v>
       </c>
       <c r="L18" t="n">
-        <v>-2.67</v>
+        <v>2.67</v>
       </c>
       <c r="M18" t="n">
         <v>0.71</v>
@@ -1511,16 +1511,16 @@
         <v>2.23</v>
       </c>
       <c r="K19" t="n">
-        <v>4.01</v>
+        <v>0.23</v>
       </c>
       <c r="L19" t="n">
-        <v>0.17</v>
+        <v>2.84</v>
       </c>
       <c r="M19" t="n">
-        <v>3.66</v>
+        <v>0.12</v>
       </c>
       <c r="N19" t="n">
-        <v>-0.08</v>
+        <v>2.58</v>
       </c>
       <c r="O19" t="n">
         <v>0</v>
@@ -1580,7 +1580,7 @@
         <v>1.41</v>
       </c>
       <c r="N20" t="n">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="O20" t="n">
         <v>0</v>
@@ -1631,10 +1631,10 @@
         <v>2.61</v>
       </c>
       <c r="K21" t="n">
-        <v>2.42</v>
+        <v>1.1</v>
       </c>
       <c r="L21" t="n">
-        <v>-0.33</v>
+        <v>2</v>
       </c>
       <c r="M21" t="n">
         <v>0.71</v>
@@ -1691,16 +1691,16 @@
         <v>2.3</v>
       </c>
       <c r="K22" t="n">
-        <v>2.83</v>
+        <v>1.18</v>
       </c>
       <c r="L22" t="n">
-        <v>1.67</v>
+        <v>2.84</v>
       </c>
       <c r="M22" t="n">
-        <v>3.18</v>
+        <v>0.35</v>
       </c>
       <c r="N22" t="n">
-        <v>0.25</v>
+        <v>2.25</v>
       </c>
       <c r="O22" t="n">
         <v>0</v>
@@ -1760,7 +1760,7 @@
         <v>0.58</v>
       </c>
       <c r="N23" t="n">
-        <v>-3.33</v>
+        <v>3.33</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
@@ -1814,7 +1814,7 @@
         <v>0.58</v>
       </c>
       <c r="L24" t="n">
-        <v>-2.5</v>
+        <v>2.5</v>
       </c>
       <c r="M24" t="n">
         <v>0.96</v>
@@ -1871,16 +1871,16 @@
         <v>1.73</v>
       </c>
       <c r="K25" t="n">
-        <v>3.75</v>
+        <v>0.21</v>
       </c>
       <c r="L25" t="n">
-        <v>0.15</v>
+        <v>2.65</v>
       </c>
       <c r="M25" t="n">
-        <v>4.3</v>
+        <v>0.41</v>
       </c>
       <c r="N25" t="n">
-        <v>-0.29</v>
+        <v>3.04</v>
       </c>
       <c r="O25" t="n">
         <v>0</v>
@@ -1940,7 +1940,7 @@
         <v>1</v>
       </c>
       <c r="N26" t="n">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="O26" t="n">
         <v>0</v>
@@ -1994,7 +1994,7 @@
         <v>0.58</v>
       </c>
       <c r="L27" t="n">
-        <v>-1.67</v>
+        <v>1.67</v>
       </c>
       <c r="M27" t="n">
         <v>1.52</v>
@@ -2051,16 +2051,16 @@
         <v>1.61</v>
       </c>
       <c r="K28" t="n">
-        <v>4.01</v>
+        <v>1.65</v>
       </c>
       <c r="L28" t="n">
-        <v>1.17</v>
+        <v>2.84</v>
       </c>
       <c r="M28" t="n">
-        <v>3.82</v>
+        <v>0.99</v>
       </c>
       <c r="N28" t="n">
-        <v>0.7</v>
+        <v>2.7</v>
       </c>
       <c r="O28" t="n">
         <v>0</v>
